--- a/RETUNE_recruitment.xlsx
+++ b/RETUNE_recruitment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usbch.sharepoint.com/teams/c0620/Freigegebene Dokumente/RETUNE/18_website/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usbch.sharepoint.com/teams/c0620/Freigegebene Dokumente/RETUNE/18_website/RETUNE_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{51399C67-AD59-964E-9247-4C3D428189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03004B84-883F-0049-99AC-D192B2345DEA}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{51399C67-AD59-964E-9247-4C3D428189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D17C3A68-EA24-D741-AEDE-B29276ED40BA}"/>
   <bookViews>
-    <workbookView xWindow="14560" yWindow="4700" windowWidth="32100" windowHeight="18720" xr2:uid="{1D389274-2DC7-8A41-9A7B-CCBF56013A3F}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="16940" xr2:uid="{1D389274-2DC7-8A41-9A7B-CCBF56013A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t xml:space="preserve">Control </t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>Basel</t>
@@ -438,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFC9B8A-85DD-B049-AB11-35BA14E37F74}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,7 +447,7 @@
     <col min="7" max="7" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,16 +472,13 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45712</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -493,12 +487,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>45720</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -510,12 +504,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>45728</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -527,12 +521,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>45735</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -544,12 +538,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>45736</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -561,58 +555,256 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>45712</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>45720</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>45728</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>45735</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>45736</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>45741</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>45741</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>45743</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>45744</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>45754</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>45754</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>45754</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>45756</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>45755</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>45756</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>45787</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>45794</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>45794</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>45794</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26">
         <v>1</v>
       </c>
     </row>
@@ -890,16 +1082,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF03F65C-5CED-4A89-8A63-D9B2AEB56D23}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
+    <ds:schemaRef ds:uri="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/RETUNE_recruitment.xlsx
+++ b/RETUNE_recruitment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usbch.sharepoint.com/teams/c0620/Freigegebene Dokumente/RETUNE/18_website/RETUNE_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{51399C67-AD59-964E-9247-4C3D428189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D17C3A68-EA24-D741-AEDE-B29276ED40BA}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="8_{51399C67-AD59-964E-9247-4C3D428189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAFE1EE7-A41F-724A-8D18-EBADB3B63742}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="16940" xr2:uid="{1D389274-2DC7-8A41-9A7B-CCBF56013A3F}"/>
+    <workbookView xWindow="4880" yWindow="760" windowWidth="25800" windowHeight="16940" xr2:uid="{1D389274-2DC7-8A41-9A7B-CCBF56013A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -754,7 +754,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>45787</v>
+        <v>45757</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>45794</v>
+        <v>45764</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>45794</v>
+        <v>45764</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>45794</v>
+        <v>45764</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -814,15 +814,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="USB-Dokument" ma:contentTypeID="0x01010074254FFFFA788748BE9570FD90FA56DE00A6BA077A5C2D0748B0D413E1B37C0DF4" ma:contentTypeVersion="19" ma:contentTypeDescription="Ein neues USB-Dokument in der Bibliothek erstellen." ma:contentTypeScope="" ma:versionID="0460c219e33ceaadeeb1895857d9b3d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee2de805-d424-449f-84ad-9da0e2dd7d39" xmlns:ns3="4c57b41f-cbf4-457f-bf80-bd53c8e26310" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98253a3e49edcf8b82886c2b64617efc" ns2:_="" ns3:_="">
     <xsd:import namespace="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
@@ -1039,6 +1030,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1053,14 +1053,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0DBF876-E745-42DF-BD17-181B14022097}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A15F151-5EBE-4D0B-B864-B75D59C5D0EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1079,19 +1071,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0DBF876-E745-42DF-BD17-181B14022097}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF03F65C-5CED-4A89-8A63-D9B2AEB56D23}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
-    <ds:schemaRef ds:uri="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/RETUNE_recruitment.xlsx
+++ b/RETUNE_recruitment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usbch.sharepoint.com/teams/c0620/Freigegebene Dokumente/RETUNE/18_website/RETUNE_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{51399C67-AD59-964E-9247-4C3D428189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAFE1EE7-A41F-724A-8D18-EBADB3B63742}"/>
+  <xr:revisionPtr revIDLastSave="224" documentId="8_{51399C67-AD59-964E-9247-4C3D428189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D529C1F-6754-744C-BDB3-95C274752AB7}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="760" windowWidth="25800" windowHeight="16940" xr2:uid="{1D389274-2DC7-8A41-9A7B-CCBF56013A3F}"/>
+    <workbookView xWindow="7840" yWindow="500" windowWidth="38420" windowHeight="24940" xr2:uid="{1D389274-2DC7-8A41-9A7B-CCBF56013A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Basel</t>
+  </si>
+  <si>
+    <t>Zuerich</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFC9B8A-85DD-B049-AB11-35BA14E37F74}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,7 +478,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45712</v>
+        <v>45622</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -489,41 +492,29 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>45720</v>
+        <v>45692</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="H3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>45728</v>
+        <v>45698</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>45735</v>
+        <v>45706</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -540,18 +531,12 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>45736</v>
+        <v>45708</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="H6">
         <v>1</v>
       </c>
     </row>
@@ -562,13 +547,19 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="H7">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>45720</v>
+        <v>45721</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -584,13 +575,19 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="H9">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>45735</v>
+        <v>45729</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -601,7 +598,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>45736</v>
+        <v>45733</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -612,7 +609,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>45741</v>
+        <v>45735</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -629,18 +626,24 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>45741</v>
+        <v>45736</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="H13">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>45743</v>
+        <v>45737</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -651,24 +654,18 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>45744</v>
+        <v>45741</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
+      <c r="H15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>45748</v>
+        <v>45743</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -679,7 +676,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>45754</v>
+        <v>45744</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -688,21 +685,21 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>45754</v>
+        <v>45747</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
+      <c r="H18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -718,7 +715,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>45756</v>
+        <v>45754</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -732,18 +729,21 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>45755</v>
+        <v>45754</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="H21">
-        <v>1</v>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>45756</v>
+        <v>45755</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -754,38 +754,29 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>45757</v>
+        <v>45756</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
+      <c r="H23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>45764</v>
+        <v>45756</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
+      <c r="H24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>45764</v>
+        <v>45757</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -808,12 +799,305 @@
         <v>1</v>
       </c>
     </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>45770</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>45771</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>45783</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>45783</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>45785</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>45789</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>45789</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>45796</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>45798</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>45803</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>45803</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>45804</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>45804</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45805</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H46">
+    <sortCondition ref="A2:A46"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Confidentiality xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">Intern</Confidentiality>
+    <Patientdata xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">false</Patientdata>
+    <TaxCatchAll xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4c57b41f-cbf4-457f-bf80-bd53c8e26310">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="USB-Dokument" ma:contentTypeID="0x01010074254FFFFA788748BE9570FD90FA56DE00A6BA077A5C2D0748B0D413E1B37C0DF4" ma:contentTypeVersion="19" ma:contentTypeDescription="Ein neues USB-Dokument in der Bibliothek erstellen." ma:contentTypeScope="" ma:versionID="0460c219e33ceaadeeb1895857d9b3d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee2de805-d424-449f-84ad-9da0e2dd7d39" xmlns:ns3="4c57b41f-cbf4-457f-bf80-bd53c8e26310" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98253a3e49edcf8b82886c2b64617efc" ns2:_="" ns3:_="">
     <xsd:import namespace="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
@@ -1030,29 +1314,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0DBF876-E745-42DF-BD17-181B14022097}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Confidentiality xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">Intern</Confidentiality>
-    <Patientdata xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">false</Patientdata>
-    <TaxCatchAll xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4c57b41f-cbf4-457f-bf80-bd53c8e26310">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF03F65C-5CED-4A89-8A63-D9B2AEB56D23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A15F151-5EBE-4D0B-B864-B75D59C5D0EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1069,29 +1356,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0DBF876-E745-42DF-BD17-181B14022097}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF03F65C-5CED-4A89-8A63-D9B2AEB56D23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/RETUNE_recruitment.xlsx
+++ b/RETUNE_recruitment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usbch.sharepoint.com/teams/c0620/Freigegebene Dokumente/RETUNE/18_website/RETUNE_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="224" documentId="8_{51399C67-AD59-964E-9247-4C3D428189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D529C1F-6754-744C-BDB3-95C274752AB7}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="8_{51399C67-AD59-964E-9247-4C3D428189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58700AB9-C018-494E-817D-E0D26688503A}"/>
   <bookViews>
-    <workbookView xWindow="7840" yWindow="500" windowWidth="38420" windowHeight="24940" xr2:uid="{1D389274-2DC7-8A41-9A7B-CCBF56013A3F}"/>
+    <workbookView xWindow="4880" yWindow="760" windowWidth="25800" windowHeight="16960" xr2:uid="{1D389274-2DC7-8A41-9A7B-CCBF56013A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Zuerich</t>
+  </si>
+  <si>
+    <t>St.Gallen</t>
   </si>
 </sst>
 </file>
@@ -438,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFC9B8A-85DD-B049-AB11-35BA14E37F74}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1067,6 +1070,99 @@
         <v>1</v>
       </c>
     </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45811</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>45811</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>45812</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>45812</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>45813</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>45813</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H46">
     <sortCondition ref="A2:A46"/>
@@ -1076,28 +1172,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Confidentiality xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">Intern</Confidentiality>
-    <Patientdata xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">false</Patientdata>
-    <TaxCatchAll xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4c57b41f-cbf4-457f-bf80-bd53c8e26310">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="USB-Dokument" ma:contentTypeID="0x01010074254FFFFA788748BE9570FD90FA56DE00A6BA077A5C2D0748B0D413E1B37C0DF4" ma:contentTypeVersion="19" ma:contentTypeDescription="Ein neues USB-Dokument in der Bibliothek erstellen." ma:contentTypeScope="" ma:versionID="0460c219e33ceaadeeb1895857d9b3d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee2de805-d424-449f-84ad-9da0e2dd7d39" xmlns:ns3="4c57b41f-cbf4-457f-bf80-bd53c8e26310" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98253a3e49edcf8b82886c2b64617efc" ns2:_="" ns3:_="">
     <xsd:import namespace="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
@@ -1314,32 +1388,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0DBF876-E745-42DF-BD17-181B14022097}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Confidentiality xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">Intern</Confidentiality>
+    <Patientdata xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">false</Patientdata>
+    <TaxCatchAll xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4c57b41f-cbf4-457f-bf80-bd53c8e26310">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF03F65C-5CED-4A89-8A63-D9B2AEB56D23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A15F151-5EBE-4D0B-B864-B75D59C5D0EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1356,4 +1427,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF03F65C-5CED-4A89-8A63-D9B2AEB56D23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
+    <ds:schemaRef ds:uri="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0DBF876-E745-42DF-BD17-181B14022097}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/RETUNE_recruitment.xlsx
+++ b/RETUNE_recruitment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usbch.sharepoint.com/teams/c0620/Freigegebene Dokumente/RETUNE/18_website/RETUNE_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="247" documentId="8_{51399C67-AD59-964E-9247-4C3D428189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58700AB9-C018-494E-817D-E0D26688503A}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="8_{51399C67-AD59-964E-9247-4C3D428189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{434AF06C-937C-CD47-84A2-97ED4E4B4E4F}"/>
   <bookViews>
     <workbookView xWindow="4880" yWindow="760" windowWidth="25800" windowHeight="16960" xr2:uid="{1D389274-2DC7-8A41-9A7B-CCBF56013A3F}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,7 +481,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45622</v>
+        <v>45712</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>45692</v>
+        <v>45709</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>45698</v>
+        <v>45714</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>45706</v>
+        <v>45720</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1389,6 +1389,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Confidentiality xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">Intern</Confidentiality>
@@ -1399,15 +1408,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1430,26 +1430,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF03F65C-5CED-4A89-8A63-D9B2AEB56D23}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0DBF876-E745-42DF-BD17-181B14022097}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
-    <ds:schemaRef ds:uri="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0DBF876-E745-42DF-BD17-181B14022097}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF03F65C-5CED-4A89-8A63-D9B2AEB56D23}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/RETUNE_recruitment.xlsx
+++ b/RETUNE_recruitment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usbch.sharepoint.com/teams/c0620/Freigegebene Dokumente/RETUNE/18_website/RETUNE_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="252" documentId="8_{51399C67-AD59-964E-9247-4C3D428189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{434AF06C-937C-CD47-84A2-97ED4E4B4E4F}"/>
+  <xr:revisionPtr revIDLastSave="275" documentId="8_{51399C67-AD59-964E-9247-4C3D428189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A58E4EB-3570-DA48-A73C-AF259F2FC982}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="760" windowWidth="25800" windowHeight="16960" xr2:uid="{1D389274-2DC7-8A41-9A7B-CCBF56013A3F}"/>
+    <workbookView xWindow="56080" yWindow="500" windowWidth="45020" windowHeight="28300" xr2:uid="{1D389274-2DC7-8A41-9A7B-CCBF56013A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>St.Gallen</t>
+  </si>
+  <si>
+    <t>St. Gallen</t>
   </si>
 </sst>
 </file>
@@ -441,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFC9B8A-85DD-B049-AB11-35BA14E37F74}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1111,9 +1114,6 @@
       <c r="B49" t="s">
         <v>10</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
       <c r="H49">
         <v>1</v>
       </c>
@@ -1161,6 +1161,62 @@
       </c>
       <c r="E52">
         <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>45818</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>45819</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>45824</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>45824</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1440,16 +1496,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF03F65C-5CED-4A89-8A63-D9B2AEB56D23}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/RETUNE_recruitment.xlsx
+++ b/RETUNE_recruitment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usbch.sharepoint.com/teams/c0620/Freigegebene Dokumente/RETUNE/18_website/RETUNE_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="275" documentId="8_{51399C67-AD59-964E-9247-4C3D428189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A58E4EB-3570-DA48-A73C-AF259F2FC982}"/>
+  <xr:revisionPtr revIDLastSave="290" documentId="8_{51399C67-AD59-964E-9247-4C3D428189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0561343-013F-494F-8542-F89670A296C0}"/>
   <bookViews>
-    <workbookView xWindow="56080" yWindow="500" windowWidth="45020" windowHeight="28300" xr2:uid="{1D389274-2DC7-8A41-9A7B-CCBF56013A3F}"/>
+    <workbookView xWindow="3620" yWindow="1120" windowWidth="25800" windowHeight="17100" xr2:uid="{1D389274-2DC7-8A41-9A7B-CCBF56013A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>St.Gallen</t>
-  </si>
-  <si>
-    <t>St. Gallen</t>
   </si>
 </sst>
 </file>
@@ -444,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFC9B8A-85DD-B049-AB11-35BA14E37F74}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1179,7 +1176,7 @@
         <v>45819</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1217,6 +1214,56 @@
       </c>
       <c r="D56">
         <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>45825</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>45826</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>45826</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>45823</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1228,6 +1275,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="USB-Dokument" ma:contentTypeID="0x01010074254FFFFA788748BE9570FD90FA56DE00A6BA077A5C2D0748B0D413E1B37C0DF4" ma:contentTypeVersion="19" ma:contentTypeDescription="Ein neues USB-Dokument in der Bibliothek erstellen." ma:contentTypeScope="" ma:versionID="0460c219e33ceaadeeb1895857d9b3d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee2de805-d424-449f-84ad-9da0e2dd7d39" xmlns:ns3="4c57b41f-cbf4-457f-bf80-bd53c8e26310" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98253a3e49edcf8b82886c2b64617efc" ns2:_="" ns3:_="">
     <xsd:import namespace="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
@@ -1444,15 +1500,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1467,6 +1514,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0DBF876-E745-42DF-BD17-181B14022097}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A15F151-5EBE-4D0B-B864-B75D59C5D0EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1485,27 +1540,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0DBF876-E745-42DF-BD17-181B14022097}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF03F65C-5CED-4A89-8A63-D9B2AEB56D23}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/RETUNE_recruitment.xlsx
+++ b/RETUNE_recruitment.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usbch.sharepoint.com/teams/c0620/Freigegebene Dokumente/RETUNE/18_website/RETUNE_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="290" documentId="8_{51399C67-AD59-964E-9247-4C3D428189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0561343-013F-494F-8542-F89670A296C0}"/>
+  <xr:revisionPtr revIDLastSave="490" documentId="8_{51399C67-AD59-964E-9247-4C3D428189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B167CD9-E958-4D4F-B62D-562BFEC94B55}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="1120" windowWidth="25800" windowHeight="17100" xr2:uid="{1D389274-2DC7-8A41-9A7B-CCBF56013A3F}"/>
+    <workbookView xWindow="6480" yWindow="720" windowWidth="40220" windowHeight="25240" xr2:uid="{1D389274-2DC7-8A41-9A7B-CCBF56013A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -50,32 +50,26 @@
     <t>Uptake</t>
   </si>
   <si>
-    <t>E-cigarettes</t>
-  </si>
-  <si>
-    <t>Nicotine pouches</t>
-  </si>
-  <si>
-    <t>Nicotine Patches</t>
-  </si>
-  <si>
     <t xml:space="preserve">Control </t>
   </si>
   <si>
     <t>Basel</t>
   </si>
   <si>
-    <t>Zuerich</t>
+    <t>Saint Gall</t>
   </si>
   <si>
-    <t>St.Gallen</t>
+    <t>Zurich</t>
+  </si>
+  <si>
+    <t>Bern</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,13 +77,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -104,9 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -441,19 +457,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFC9B8A-85DD-B049-AB11-35BA14E37F74}">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,153 +481,135 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
+        <v>45692</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>45698</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>45706</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>45708</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>45712</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>45709</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>45714</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>45720</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>45708</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>45712</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
+        <v>45721</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>45721</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>45728</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>45728</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
+        <v>45729</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>45729</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>45733</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>45733</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>45735</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>45735</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
+        <v>45736</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -623,66 +617,60 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>45736</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
+        <v>45737</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>45737</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>45741</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>45741</v>
       </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>45743</v>
       </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>45744</v>
       </c>
-      <c r="B17" t="s">
-        <v>8</v>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -690,38 +678,35 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>45747</v>
       </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45754</v>
       </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>45754</v>
       </c>
-      <c r="B20" t="s">
-        <v>8</v>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -730,12 +715,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>45754</v>
       </c>
-      <c r="B21" t="s">
-        <v>8</v>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -744,45 +729,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>45755</v>
       </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>45756</v>
       </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>45756</v>
       </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45757</v>
       </c>
-      <c r="B25" t="s">
-        <v>8</v>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -791,76 +779,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>45764</v>
       </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>45764</v>
       </c>
-      <c r="B27" t="s">
-        <v>8</v>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>45764</v>
       </c>
-      <c r="B28" t="s">
-        <v>8</v>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>45770</v>
       </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>45771</v>
       </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>45775</v>
       </c>
-      <c r="B31" t="s">
-        <v>8</v>
+      <c r="B31" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -868,119 +853,107 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>45777</v>
       </c>
-      <c r="B32" t="s">
-        <v>8</v>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>45783</v>
       </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>45783</v>
       </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>45785</v>
       </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>45789</v>
       </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>45789</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>45796</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>45796</v>
       </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>45798</v>
       </c>
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>45799</v>
       </c>
-      <c r="B40" t="s">
-        <v>8</v>
+      <c r="B40" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -989,12 +962,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>45799</v>
       </c>
-      <c r="B41" t="s">
-        <v>9</v>
+      <c r="B41" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1003,23 +976,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>45803</v>
       </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>45803</v>
       </c>
-      <c r="B43" t="s">
-        <v>8</v>
+      <c r="B43" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1028,12 +1001,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>45804</v>
       </c>
-      <c r="B44" t="s">
-        <v>8</v>
+      <c r="B44" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1041,16 +1014,13 @@
       <c r="D44">
         <v>1</v>
       </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>45804</v>
       </c>
-      <c r="B45" t="s">
-        <v>9</v>
+      <c r="B45" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1059,23 +1029,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45805</v>
       </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45811</v>
       </c>
-      <c r="B47" t="s">
-        <v>8</v>
+      <c r="B47" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1083,16 +1053,13 @@
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>45811</v>
       </c>
-      <c r="B48" t="s">
-        <v>8</v>
+      <c r="B48" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1100,175 +1067,514 @@
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>45812</v>
       </c>
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>45812</v>
       </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>45813</v>
-      </c>
-      <c r="B51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>45812</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>45813</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>45813</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>45818</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>45819</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>45820</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>45820</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>45824</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>45824</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>45824</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>45824</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>45825</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>45825</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>45826</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>45827</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>45828</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>45831</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>45831</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>45832</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>45833</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>45834</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>45847</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>45852</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>45818</v>
-      </c>
-      <c r="B53" t="s">
-        <v>9</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>45819</v>
-      </c>
-      <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>45824</v>
-      </c>
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>45824</v>
-      </c>
-      <c r="B56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>45825</v>
-      </c>
-      <c r="B57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>45826</v>
-      </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>45826</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>45823</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <v>45838</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <v>45839</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
+        <v>45842</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
+        <v>45845</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
+        <v>45846</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
+        <v>45848</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
+        <v>45849</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <v>45853</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H46">
-    <sortCondition ref="A2:A46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E71">
+    <sortCondition ref="A2:A71"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1543,15 +1849,15 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF03F65C-5CED-4A89-8A63-D9B2AEB56D23}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/RETUNE_recruitment.xlsx
+++ b/RETUNE_recruitment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usbch.sharepoint.com/teams/c0620/Freigegebene Dokumente/RETUNE/18_website/RETUNE_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="490" documentId="8_{51399C67-AD59-964E-9247-4C3D428189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B167CD9-E958-4D4F-B62D-562BFEC94B55}"/>
+  <xr:revisionPtr revIDLastSave="547" documentId="8_{51399C67-AD59-964E-9247-4C3D428189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD43C165-683F-5940-A5FF-7E7032E87B4F}"/>
   <bookViews>
     <workbookView xWindow="6480" yWindow="720" windowWidth="40220" windowHeight="25240" xr2:uid="{1D389274-2DC7-8A41-9A7B-CCBF56013A3F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFC9B8A-85DD-B049-AB11-35BA14E37F74}">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J107" sqref="J107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1570,6 +1570,182 @@
       </c>
       <c r="D90">
         <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>45854</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <v>45853</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
+        <v>45853</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
+        <v>45854</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
+        <v>45854</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>45855</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>45856</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
+        <v>45855</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
+        <v>45856</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
+        <v>45859</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
+        <v>45860</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1581,15 +1757,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="USB-Dokument" ma:contentTypeID="0x01010074254FFFFA788748BE9570FD90FA56DE00A6BA077A5C2D0748B0D413E1B37C0DF4" ma:contentTypeVersion="19" ma:contentTypeDescription="Ein neues USB-Dokument in der Bibliothek erstellen." ma:contentTypeScope="" ma:versionID="0460c219e33ceaadeeb1895857d9b3d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee2de805-d424-449f-84ad-9da0e2dd7d39" xmlns:ns3="4c57b41f-cbf4-457f-bf80-bd53c8e26310" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98253a3e49edcf8b82886c2b64617efc" ns2:_="" ns3:_="">
     <xsd:import namespace="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
@@ -1806,7 +1973,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Confidentiality xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">Intern</Confidentiality>
@@ -1819,15 +1986,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0DBF876-E745-42DF-BD17-181B14022097}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A15F151-5EBE-4D0B-B864-B75D59C5D0EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1846,19 +2014,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF03F65C-5CED-4A89-8A63-D9B2AEB56D23}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0DBF876-E745-42DF-BD17-181B14022097}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/RETUNE_recruitment.xlsx
+++ b/RETUNE_recruitment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usbch.sharepoint.com/teams/c0620/Freigegebene Dokumente/RETUNE/18_website/RETUNE_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="547" documentId="8_{51399C67-AD59-964E-9247-4C3D428189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD43C165-683F-5940-A5FF-7E7032E87B4F}"/>
+  <xr:revisionPtr revIDLastSave="634" documentId="8_{51399C67-AD59-964E-9247-4C3D428189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{422143F7-F9B6-DE49-A555-1E650FA7DCC4}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="720" windowWidth="40220" windowHeight="25240" xr2:uid="{1D389274-2DC7-8A41-9A7B-CCBF56013A3F}"/>
+    <workbookView xWindow="3860" yWindow="700" windowWidth="40220" windowHeight="25240" xr2:uid="{1D389274-2DC7-8A41-9A7B-CCBF56013A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Bern</t>
+  </si>
+  <si>
+    <t>Geneva</t>
   </si>
 </sst>
 </file>
@@ -117,12 +120,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -457,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFC9B8A-85DD-B049-AB11-35BA14E37F74}">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J107" sqref="J107"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124:E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1747,6 +1751,383 @@
       <c r="E106">
         <v>1</v>
       </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>45880</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>45880</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>45873</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>45868</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>45868</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>45866</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>45862</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>45861</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>45861</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>45861</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="5">
+        <v>45862</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="5">
+        <v>45862</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="5">
+        <v>45866</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="5">
+        <v>45866</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="5">
+        <v>45867</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="5">
+        <v>45869</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="5">
+        <v>45869</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="5">
+        <v>45869</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="5">
+        <v>45870</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="5">
+        <v>45870</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="5">
+        <v>45873</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="5">
+        <v>45874</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="5">
+        <v>45874</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="5">
+        <v>45875</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="5">
+        <v>45876</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="5">
+        <v>45877</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="4">
+        <v>45881</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E71">
@@ -1757,6 +2138,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Confidentiality xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">Intern</Confidentiality>
+    <Patientdata xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">false</Patientdata>
+    <TaxCatchAll xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4c57b41f-cbf4-457f-bf80-bd53c8e26310">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="USB-Dokument" ma:contentTypeID="0x01010074254FFFFA788748BE9570FD90FA56DE00A6BA077A5C2D0748B0D413E1B37C0DF4" ma:contentTypeVersion="19" ma:contentTypeDescription="Ein neues USB-Dokument in der Bibliothek erstellen." ma:contentTypeScope="" ma:versionID="0460c219e33ceaadeeb1895857d9b3d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee2de805-d424-449f-84ad-9da0e2dd7d39" xmlns:ns3="4c57b41f-cbf4-457f-bf80-bd53c8e26310" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98253a3e49edcf8b82886c2b64617efc" ns2:_="" ns3:_="">
     <xsd:import namespace="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
@@ -1973,19 +2367,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Confidentiality xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">Intern</Confidentiality>
-    <Patientdata xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">false</Patientdata>
-    <TaxCatchAll xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4c57b41f-cbf4-457f-bf80-bd53c8e26310">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1996,6 +2377,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF03F65C-5CED-4A89-8A63-D9B2AEB56D23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A15F151-5EBE-4D0B-B864-B75D59C5D0EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2014,23 +2412,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF03F65C-5CED-4A89-8A63-D9B2AEB56D23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0DBF876-E745-42DF-BD17-181B14022097}">
   <ds:schemaRefs>

--- a/RETUNE_recruitment.xlsx
+++ b/RETUNE_recruitment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usbch.sharepoint.com/teams/c0620/Freigegebene Dokumente/RETUNE/18_website/RETUNE_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="634" documentId="8_{51399C67-AD59-964E-9247-4C3D428189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{422143F7-F9B6-DE49-A555-1E650FA7DCC4}"/>
+  <xr:revisionPtr revIDLastSave="706" documentId="8_{51399C67-AD59-964E-9247-4C3D428189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E4B8C58-52CE-9F4E-9EA1-F2C0A502CCFE}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="700" windowWidth="40220" windowHeight="25240" xr2:uid="{1D389274-2DC7-8A41-9A7B-CCBF56013A3F}"/>
+    <workbookView xWindow="4880" yWindow="700" windowWidth="40220" windowHeight="25240" xr2:uid="{1D389274-2DC7-8A41-9A7B-CCBF56013A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>Geneva</t>
+  </si>
+  <si>
+    <t>Lausanne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zuerich </t>
   </si>
 </sst>
 </file>
@@ -461,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFC9B8A-85DD-B049-AB11-35BA14E37F74}">
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124:E140"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2126,8 +2132,459 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="2"/>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B141" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B143" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B150" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B151" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B152" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B157" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B158" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B159" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>45882</v>
+      </c>
+      <c r="B160" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>45882</v>
+      </c>
+      <c r="B161" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="5">
+        <v>45882</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="5">
+        <v>45882</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="5">
+        <v>45883</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="5">
+        <v>45884</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="5">
+        <v>45884</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="5">
+        <v>45887</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="5">
+        <v>45887</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="5">
+        <v>45887</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="5">
+        <v>45888</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="5">
+        <v>45889</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="5">
+        <v>45889</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="5">
+        <v>45889</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="5">
+        <v>45890</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="5">
+        <v>45890</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="5">
+        <v>45891</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="5">
+        <v>45891</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="5">
+        <v>45894</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="5">
+        <v>45895</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="5">
+        <v>45895</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="5">
+        <v>45895</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E71">
@@ -2138,19 +2595,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Confidentiality xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">Intern</Confidentiality>
-    <Patientdata xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">false</Patientdata>
-    <TaxCatchAll xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4c57b41f-cbf4-457f-bf80-bd53c8e26310">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="USB-Dokument" ma:contentTypeID="0x01010074254FFFFA788748BE9570FD90FA56DE00A6BA077A5C2D0748B0D413E1B37C0DF4" ma:contentTypeVersion="19" ma:contentTypeDescription="Ein neues USB-Dokument in der Bibliothek erstellen." ma:contentTypeScope="" ma:versionID="0460c219e33ceaadeeb1895857d9b3d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee2de805-d424-449f-84ad-9da0e2dd7d39" xmlns:ns3="4c57b41f-cbf4-457f-bf80-bd53c8e26310" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98253a3e49edcf8b82886c2b64617efc" ns2:_="" ns3:_="">
     <xsd:import namespace="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
@@ -2367,6 +2811,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Confidentiality xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">Intern</Confidentiality>
+    <Patientdata xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">false</Patientdata>
+    <TaxCatchAll xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4c57b41f-cbf4-457f-bf80-bd53c8e26310">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2377,23 +2834,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF03F65C-5CED-4A89-8A63-D9B2AEB56D23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A15F151-5EBE-4D0B-B864-B75D59C5D0EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2412,6 +2852,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF03F65C-5CED-4A89-8A63-D9B2AEB56D23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0DBF876-E745-42DF-BD17-181B14022097}">
   <ds:schemaRefs>

--- a/RETUNE_recruitment.xlsx
+++ b/RETUNE_recruitment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usbch.sharepoint.com/teams/c0620/Freigegebene Dokumente/RETUNE/18_website/RETUNE_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="706" documentId="8_{51399C67-AD59-964E-9247-4C3D428189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E4B8C58-52CE-9F4E-9EA1-F2C0A502CCFE}"/>
+  <xr:revisionPtr revIDLastSave="823" documentId="8_{51399C67-AD59-964E-9247-4C3D428189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DE93B2C-E260-3C41-9DBE-C3C69976FB19}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="700" windowWidth="40220" windowHeight="25240" xr2:uid="{1D389274-2DC7-8A41-9A7B-CCBF56013A3F}"/>
+    <workbookView xWindow="4320" yWindow="740" windowWidth="40220" windowHeight="25240" xr2:uid="{1D389274-2DC7-8A41-9A7B-CCBF56013A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -126,13 +126,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -467,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFC9B8A-85DD-B049-AB11-35BA14E37F74}">
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G138" sqref="G138"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J229" sqref="J229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2586,15 +2587,647 @@
         <v>1</v>
       </c>
     </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B182" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>45916</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>45916</v>
+      </c>
+      <c r="B184" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>45915</v>
+      </c>
+      <c r="B185" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>45915</v>
+      </c>
+      <c r="B186" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>45915</v>
+      </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>45915</v>
+      </c>
+      <c r="B188" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>45915</v>
+      </c>
+      <c r="B189" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>45911</v>
+      </c>
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B191" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>45909</v>
+      </c>
+      <c r="B192" t="s">
+        <v>10</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>45908</v>
+      </c>
+      <c r="B193" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>45908</v>
+      </c>
+      <c r="B194" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>45908</v>
+      </c>
+      <c r="B195" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>45905</v>
+      </c>
+      <c r="B196" t="s">
+        <v>10</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>45904</v>
+      </c>
+      <c r="B197" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>45904</v>
+      </c>
+      <c r="B198" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>45903</v>
+      </c>
+      <c r="B199" t="s">
+        <v>10</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>45903</v>
+      </c>
+      <c r="B200" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="6">
+        <v>45902</v>
+      </c>
+      <c r="B201" t="s">
+        <v>11</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B202" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B203" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B204" t="s">
+        <v>10</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B206" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B207" t="s">
+        <v>10</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>45897</v>
+      </c>
+      <c r="B208" t="s">
+        <v>10</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="5">
+        <v>45897</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="5">
+        <v>45898</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="5">
+        <v>45898</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="4">
+        <v>45904</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="5">
+        <v>45904</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="5">
+        <v>45905</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="5">
+        <v>45905</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="5">
+        <v>45905</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="5">
+        <v>45905</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="5">
+        <v>45905</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="5">
+        <v>45908</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="5">
+        <v>45908</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="5">
+        <v>45908</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="5">
+        <v>45909</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="5">
+        <v>45909</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="5">
+        <v>45909</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="5">
+        <v>45910</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="5">
+        <v>45910</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="5">
+        <v>45910</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="5">
+        <v>45910</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="5">
+        <v>45910</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="5">
+        <v>45911</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="5">
+        <v>45911</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="4">
+        <v>45915</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="5">
+        <v>45915</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="5">
+        <v>45916</v>
+      </c>
+      <c r="E234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="5">
+        <v>45918</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="5">
+        <v>45918</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="5">
+        <v>45918</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E71">
-    <sortCondition ref="A2:A71"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A209:A237">
+    <sortCondition ref="A209:A237"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Confidentiality xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">Intern</Confidentiality>
+    <Patientdata xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">false</Patientdata>
+    <TaxCatchAll xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4c57b41f-cbf4-457f-bf80-bd53c8e26310">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="USB-Dokument" ma:contentTypeID="0x01010074254FFFFA788748BE9570FD90FA56DE00A6BA077A5C2D0748B0D413E1B37C0DF4" ma:contentTypeVersion="19" ma:contentTypeDescription="Ein neues USB-Dokument in der Bibliothek erstellen." ma:contentTypeScope="" ma:versionID="0460c219e33ceaadeeb1895857d9b3d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee2de805-d424-449f-84ad-9da0e2dd7d39" xmlns:ns3="4c57b41f-cbf4-457f-bf80-bd53c8e26310" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98253a3e49edcf8b82886c2b64617efc" ns2:_="" ns3:_="">
     <xsd:import namespace="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
@@ -2811,29 +3444,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Confidentiality xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">Intern</Confidentiality>
-    <Patientdata xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">false</Patientdata>
-    <TaxCatchAll xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4c57b41f-cbf4-457f-bf80-bd53c8e26310">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0DBF876-E745-42DF-BD17-181B14022097}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF03F65C-5CED-4A89-8A63-D9B2AEB56D23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
+    <ds:schemaRef ds:uri="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A15F151-5EBE-4D0B-B864-B75D59C5D0EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2850,29 +3486,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF03F65C-5CED-4A89-8A63-D9B2AEB56D23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0DBF876-E745-42DF-BD17-181B14022097}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/RETUNE_recruitment.xlsx
+++ b/RETUNE_recruitment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usbch.sharepoint.com/teams/c0620/Freigegebene Dokumente/RETUNE/18_website/RETUNE_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="823" documentId="8_{51399C67-AD59-964E-9247-4C3D428189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DE93B2C-E260-3C41-9DBE-C3C69976FB19}"/>
+  <xr:revisionPtr revIDLastSave="976" documentId="8_{51399C67-AD59-964E-9247-4C3D428189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B459145-F2D0-514B-8E5C-F2791B04DCD9}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="740" windowWidth="40220" windowHeight="25240" xr2:uid="{1D389274-2DC7-8A41-9A7B-CCBF56013A3F}"/>
+    <workbookView xWindow="4880" yWindow="720" windowWidth="40220" windowHeight="25240" xr2:uid="{1D389274-2DC7-8A41-9A7B-CCBF56013A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -468,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFC9B8A-85DD-B049-AB11-35BA14E37F74}">
-  <dimension ref="A1:E237"/>
+  <dimension ref="A1:E333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J229" sqref="J229"/>
+    <sheetView tabSelected="1" topLeftCell="A305" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I277" sqref="I277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3194,6 +3194,1074 @@
         <v>45918</v>
       </c>
       <c r="E237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>45957</v>
+      </c>
+      <c r="B238" t="s">
+        <v>10</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>45954</v>
+      </c>
+      <c r="B239" t="s">
+        <v>10</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>45954</v>
+      </c>
+      <c r="B240" t="s">
+        <v>11</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>45954</v>
+      </c>
+      <c r="B241" t="s">
+        <v>11</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>45953</v>
+      </c>
+      <c r="B242" t="s">
+        <v>11</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>45953</v>
+      </c>
+      <c r="B243" t="s">
+        <v>11</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>45953</v>
+      </c>
+      <c r="B244" t="s">
+        <v>8</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>45953</v>
+      </c>
+      <c r="B245" t="s">
+        <v>10</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>45953</v>
+      </c>
+      <c r="B246" t="s">
+        <v>11</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>45953</v>
+      </c>
+      <c r="B247" t="s">
+        <v>9</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>45953</v>
+      </c>
+      <c r="B248" t="s">
+        <v>11</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>45952</v>
+      </c>
+      <c r="B249" t="s">
+        <v>10</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>45951</v>
+      </c>
+      <c r="B250" t="s">
+        <v>9</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>45951</v>
+      </c>
+      <c r="B251" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>45951</v>
+      </c>
+      <c r="B252" t="s">
+        <v>10</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>45951</v>
+      </c>
+      <c r="B253" t="s">
+        <v>11</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>45950</v>
+      </c>
+      <c r="B254" t="s">
+        <v>11</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>45950</v>
+      </c>
+      <c r="B255" t="s">
+        <v>11</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>45947</v>
+      </c>
+      <c r="B256" t="s">
+        <v>6</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>45945</v>
+      </c>
+      <c r="B257" t="s">
+        <v>10</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>45945</v>
+      </c>
+      <c r="B258" t="s">
+        <v>10</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>45944</v>
+      </c>
+      <c r="B259" t="s">
+        <v>10</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>45944</v>
+      </c>
+      <c r="B260" t="s">
+        <v>9</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B261" t="s">
+        <v>10</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B262" t="s">
+        <v>9</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>45940</v>
+      </c>
+      <c r="B263" t="s">
+        <v>9</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>45940</v>
+      </c>
+      <c r="B264" t="s">
+        <v>11</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>45939</v>
+      </c>
+      <c r="B265" t="s">
+        <v>9</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>45938</v>
+      </c>
+      <c r="B266" t="s">
+        <v>10</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>45938</v>
+      </c>
+      <c r="B267" t="s">
+        <v>11</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>45937</v>
+      </c>
+      <c r="B268" t="s">
+        <v>10</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>45937</v>
+      </c>
+      <c r="B269" t="s">
+        <v>10</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>45936</v>
+      </c>
+      <c r="B270" t="s">
+        <v>11</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>45936</v>
+      </c>
+      <c r="B271" t="s">
+        <v>9</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>45936</v>
+      </c>
+      <c r="B272" t="s">
+        <v>11</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>45933</v>
+      </c>
+      <c r="B273" t="s">
+        <v>10</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>45932</v>
+      </c>
+      <c r="B274" t="s">
+        <v>10</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>45932</v>
+      </c>
+      <c r="B275" t="s">
+        <v>10</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>45932</v>
+      </c>
+      <c r="B276" t="s">
+        <v>11</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B277" t="s">
+        <v>8</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B278" t="s">
+        <v>8</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>45929</v>
+      </c>
+      <c r="B279" t="s">
+        <v>11</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>45929</v>
+      </c>
+      <c r="B280" t="s">
+        <v>11</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>45929</v>
+      </c>
+      <c r="B281" t="s">
+        <v>8</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>45929</v>
+      </c>
+      <c r="B282" t="s">
+        <v>9</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>45926</v>
+      </c>
+      <c r="B283" t="s">
+        <v>9</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <v>45926</v>
+      </c>
+      <c r="B284" t="s">
+        <v>11</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>45924</v>
+      </c>
+      <c r="B285" t="s">
+        <v>6</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>45923</v>
+      </c>
+      <c r="B286" t="s">
+        <v>10</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>45922</v>
+      </c>
+      <c r="B287" t="s">
+        <v>11</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" s="5">
+        <v>45937</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" s="5">
+        <v>45953</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" s="5">
+        <v>45938</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" s="5">
+        <v>45922</v>
+      </c>
+      <c r="E291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" s="5">
+        <v>45943</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" s="5">
+        <v>45931</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294" s="5">
+        <v>45940</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295" s="5">
+        <v>45954</v>
+      </c>
+      <c r="E295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296" s="5">
+        <v>45937</v>
+      </c>
+      <c r="E296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297" s="5">
+        <v>45938</v>
+      </c>
+      <c r="E297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298" s="5">
+        <v>45936</v>
+      </c>
+      <c r="E298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299" s="5">
+        <v>45933</v>
+      </c>
+      <c r="E299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300" s="5">
+        <v>45947</v>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301" s="5">
+        <v>45946</v>
+      </c>
+      <c r="E301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" s="5">
+        <v>45952</v>
+      </c>
+      <c r="E302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" s="5">
+        <v>45939</v>
+      </c>
+      <c r="E303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" s="5">
+        <v>45923</v>
+      </c>
+      <c r="E304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" s="5">
+        <v>45929</v>
+      </c>
+      <c r="E305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" s="5">
+        <v>45940</v>
+      </c>
+      <c r="E306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307" s="5">
+        <v>45944</v>
+      </c>
+      <c r="E307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308" s="5">
+        <v>45932</v>
+      </c>
+      <c r="E308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309" s="5">
+        <v>45940</v>
+      </c>
+      <c r="E309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310" s="5">
+        <v>45936</v>
+      </c>
+      <c r="E310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311" s="5">
+        <v>45945</v>
+      </c>
+      <c r="E311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312" s="5">
+        <v>45930</v>
+      </c>
+      <c r="E312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313" s="5">
+        <v>45939</v>
+      </c>
+      <c r="E313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314" s="5">
+        <v>45933</v>
+      </c>
+      <c r="E314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315" s="5">
+        <v>45954</v>
+      </c>
+      <c r="E315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316" s="5">
+        <v>45945</v>
+      </c>
+      <c r="E316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" s="5">
+        <v>45922</v>
+      </c>
+      <c r="E317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318" s="5">
+        <v>45943</v>
+      </c>
+      <c r="E318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319" s="5">
+        <v>45929</v>
+      </c>
+      <c r="E319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320" s="5">
+        <v>45932</v>
+      </c>
+      <c r="E320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321" s="5">
+        <v>45936</v>
+      </c>
+      <c r="E321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322" s="5">
+        <v>45951</v>
+      </c>
+      <c r="E322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323" s="5">
+        <v>45929</v>
+      </c>
+      <c r="E323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324" s="5">
+        <v>45951</v>
+      </c>
+      <c r="E324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325" s="5">
+        <v>45953</v>
+      </c>
+      <c r="E325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A326" s="5">
+        <v>45950</v>
+      </c>
+      <c r="E326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327" s="5">
+        <v>45933</v>
+      </c>
+      <c r="E327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A328" s="5">
+        <v>45940</v>
+      </c>
+      <c r="E328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329" s="5">
+        <v>45944</v>
+      </c>
+      <c r="E329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330" s="5">
+        <v>45924</v>
+      </c>
+      <c r="E330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A331" s="5">
+        <v>45933</v>
+      </c>
+      <c r="E331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332" s="5">
+        <v>45950</v>
+      </c>
+      <c r="E332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333" s="5">
+        <v>45940</v>
+      </c>
+      <c r="E333">
         <v>1</v>
       </c>
     </row>
@@ -3206,30 +4274,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Confidentiality xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">Intern</Confidentiality>
-    <Patientdata xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">false</Patientdata>
-    <TaxCatchAll xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4c57b41f-cbf4-457f-bf80-bd53c8e26310">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="USB-Dokument" ma:contentTypeID="0x01010074254FFFFA788748BE9570FD90FA56DE00A6BA077A5C2D0748B0D413E1B37C0DF4" ma:contentTypeVersion="19" ma:contentTypeDescription="Ein neues USB-Dokument in der Bibliothek erstellen." ma:contentTypeScope="" ma:versionID="0460c219e33ceaadeeb1895857d9b3d1">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee2de805-d424-449f-84ad-9da0e2dd7d39" xmlns:ns3="4c57b41f-cbf4-457f-bf80-bd53c8e26310" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98253a3e49edcf8b82886c2b64617efc" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="USB-Dokument" ma:contentTypeID="0x01010074254FFFFA788748BE9570FD90FA56DE00A6BA077A5C2D0748B0D413E1B37C0DF4" ma:contentTypeVersion="19" ma:contentTypeDescription="Ein neues USB-Dokument in der Bibliothek erstellen." ma:contentTypeScope="" ma:versionID="02b5e8e077bfe91883e6f5ecfc3b3af6">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee2de805-d424-449f-84ad-9da0e2dd7d39" xmlns:ns3="4c57b41f-cbf4-457f-bf80-bd53c8e26310" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="339fe5645888afd041a953f5a2ed2ded" ns2:_="" ns3:_="">
     <xsd:import namespace="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
     <xsd:import namespace="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
     <xsd:element name="properties">
@@ -3444,46 +4490,53 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Confidentiality xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">Intern</Confidentiality>
+    <Patientdata xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">false</Patientdata>
+    <TaxCatchAll xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4c57b41f-cbf4-457f-bf80-bd53c8e26310">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{631E6FC6-77F7-401A-A740-4BF8554C52E8}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF03F65C-5CED-4A89-8A63-D9B2AEB56D23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0DBF876-E745-42DF-BD17-181B14022097}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF03F65C-5CED-4A89-8A63-D9B2AEB56D23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
-    <ds:schemaRef ds:uri="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A15F151-5EBE-4D0B-B864-B75D59C5D0EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
-    <ds:schemaRef ds:uri="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/RETUNE_recruitment.xlsx
+++ b/RETUNE_recruitment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usbch.sharepoint.com/teams/c0620/Freigegebene Dokumente/RETUNE/18_website/RETUNE_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="976" documentId="8_{51399C67-AD59-964E-9247-4C3D428189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B459145-F2D0-514B-8E5C-F2791B04DCD9}"/>
+  <xr:revisionPtr revIDLastSave="1081" documentId="8_{51399C67-AD59-964E-9247-4C3D428189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4852C4D4-A405-5D44-8996-343B4449A7F9}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="720" windowWidth="40220" windowHeight="25240" xr2:uid="{1D389274-2DC7-8A41-9A7B-CCBF56013A3F}"/>
+    <workbookView xWindow="5300" yWindow="820" windowWidth="40220" windowHeight="25920" xr2:uid="{1D389274-2DC7-8A41-9A7B-CCBF56013A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -73,12 +73,15 @@
   <si>
     <t xml:space="preserve">Zuerich </t>
   </si>
+  <si>
+    <t>Aarau</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,6 +94,12 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -126,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -134,6 +143,8 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -468,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFC9B8A-85DD-B049-AB11-35BA14E37F74}">
-  <dimension ref="A1:E333"/>
+  <dimension ref="A1:F398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A305" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I277" sqref="I277"/>
+    <sheetView tabSelected="1" topLeftCell="A358" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E368" sqref="E368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4161,7 +4172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="5">
         <v>45936</v>
       </c>
@@ -4169,7 +4180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="5">
         <v>45951</v>
       </c>
@@ -4177,7 +4188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="5">
         <v>45929</v>
       </c>
@@ -4185,7 +4196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="5">
         <v>45951</v>
       </c>
@@ -4193,7 +4204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="5">
         <v>45953</v>
       </c>
@@ -4201,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="5">
         <v>45950</v>
       </c>
@@ -4209,7 +4220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="5">
         <v>45933</v>
       </c>
@@ -4217,7 +4228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="5">
         <v>45940</v>
       </c>
@@ -4225,7 +4236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="5">
         <v>45944</v>
       </c>
@@ -4233,7 +4244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="5">
         <v>45924</v>
       </c>
@@ -4241,7 +4252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="5">
         <v>45933</v>
       </c>
@@ -4249,7 +4260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="5">
         <v>45950</v>
       </c>
@@ -4257,13 +4268,724 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="5">
         <v>45940</v>
       </c>
       <c r="E333">
         <v>1</v>
       </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A334" s="7">
+        <v>45981</v>
+      </c>
+      <c r="B334" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+      <c r="D334" s="8">
+        <v>1</v>
+      </c>
+      <c r="E334" s="8"/>
+      <c r="F334" s="8"/>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A335" s="7">
+        <v>45980</v>
+      </c>
+      <c r="B335" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335" s="8">
+        <v>1</v>
+      </c>
+      <c r="E335" s="8"/>
+      <c r="F335" s="8"/>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A336" s="7">
+        <v>45980</v>
+      </c>
+      <c r="B336" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336" s="8">
+        <v>0</v>
+      </c>
+      <c r="E336" s="8"/>
+      <c r="F336" s="8"/>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A337" s="7">
+        <v>45980</v>
+      </c>
+      <c r="B337" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337" s="8">
+        <v>0</v>
+      </c>
+      <c r="E337" s="8"/>
+      <c r="F337" s="8"/>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A338" s="7">
+        <v>45978</v>
+      </c>
+      <c r="B338" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338" s="8">
+        <v>1</v>
+      </c>
+      <c r="E338" s="8"/>
+      <c r="F338" s="8"/>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A339" s="7">
+        <v>45978</v>
+      </c>
+      <c r="B339" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+      <c r="D339" s="8">
+        <v>0</v>
+      </c>
+      <c r="E339" s="8"/>
+      <c r="F339" s="8"/>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A340" s="7">
+        <v>45978</v>
+      </c>
+      <c r="B340" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340" s="8">
+        <v>0</v>
+      </c>
+      <c r="E340" s="8"/>
+      <c r="F340" s="8"/>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A341" s="7">
+        <v>45974</v>
+      </c>
+      <c r="B341" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+      <c r="D341" s="8">
+        <v>0</v>
+      </c>
+      <c r="E341" s="8"/>
+      <c r="F341" s="8"/>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A342" s="7">
+        <v>45974</v>
+      </c>
+      <c r="B342" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342" s="8">
+        <v>0</v>
+      </c>
+      <c r="E342" s="8"/>
+      <c r="F342" s="8"/>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A343" s="7">
+        <v>45974</v>
+      </c>
+      <c r="B343" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+      <c r="D343" s="8">
+        <v>0</v>
+      </c>
+      <c r="E343" s="8"/>
+      <c r="F343" s="8"/>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A344" s="7">
+        <v>45974</v>
+      </c>
+      <c r="B344" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344" s="8">
+        <v>1</v>
+      </c>
+      <c r="E344" s="8"/>
+      <c r="F344" s="8"/>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A345" s="7">
+        <v>45974</v>
+      </c>
+      <c r="B345" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345" s="8">
+        <v>0</v>
+      </c>
+      <c r="E345" s="8"/>
+      <c r="F345" s="8"/>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A346" s="7">
+        <v>45973</v>
+      </c>
+      <c r="B346" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346" s="8">
+        <v>0</v>
+      </c>
+      <c r="E346" s="8"/>
+      <c r="F346" s="8"/>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A347" s="7">
+        <v>45972</v>
+      </c>
+      <c r="B347" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+      <c r="D347" s="8">
+        <v>1</v>
+      </c>
+      <c r="E347" s="8"/>
+      <c r="F347" s="8"/>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A348" s="7">
+        <v>45972</v>
+      </c>
+      <c r="B348" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+      <c r="D348" s="8">
+        <v>1</v>
+      </c>
+      <c r="E348" s="8"/>
+      <c r="F348" s="8"/>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A349" s="7">
+        <v>45971</v>
+      </c>
+      <c r="B349" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+      <c r="D349" s="8">
+        <v>1</v>
+      </c>
+      <c r="E349" s="8"/>
+      <c r="F349" s="8"/>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A350" s="7">
+        <v>45971</v>
+      </c>
+      <c r="B350" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+      <c r="D350" s="8">
+        <v>0</v>
+      </c>
+      <c r="E350" s="8"/>
+      <c r="F350" s="8"/>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A351" s="7">
+        <v>45967</v>
+      </c>
+      <c r="B351" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+      <c r="D351" s="8">
+        <v>1</v>
+      </c>
+      <c r="E351" s="8"/>
+      <c r="F351" s="8"/>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A352" s="1">
+        <v>45967</v>
+      </c>
+      <c r="B352" t="s">
+        <v>5</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+      <c r="D352" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B353" t="s">
+        <v>5</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+      <c r="D353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A354" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B354" t="s">
+        <v>8</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A355" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B355" t="s">
+        <v>8</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A356" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B356" t="s">
+        <v>8</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B357" t="s">
+        <v>7</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A358" s="1">
+        <v>45960</v>
+      </c>
+      <c r="B358" t="s">
+        <v>10</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A359" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B359" t="s">
+        <v>9</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+      <c r="D359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A360" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B360" t="s">
+        <v>10</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A361" s="1">
+        <v>45958</v>
+      </c>
+      <c r="B361" t="s">
+        <v>6</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A362" s="1">
+        <v>45958</v>
+      </c>
+      <c r="B362" t="s">
+        <v>11</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A363" s="1">
+        <v>45958</v>
+      </c>
+      <c r="B363" t="s">
+        <v>8</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A364" s="1">
+        <v>45968</v>
+      </c>
+      <c r="E364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A365" s="1">
+        <v>45964</v>
+      </c>
+      <c r="E365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A366" s="1">
+        <v>45971</v>
+      </c>
+      <c r="E366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A367" s="1">
+        <v>45961</v>
+      </c>
+      <c r="E367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A368" s="1">
+        <v>45972</v>
+      </c>
+      <c r="E368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A369" s="1">
+        <v>45964</v>
+      </c>
+      <c r="E369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A370" s="1">
+        <v>45979</v>
+      </c>
+      <c r="E370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A371" s="1">
+        <v>45965</v>
+      </c>
+      <c r="E371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A372" s="1">
+        <v>45959</v>
+      </c>
+      <c r="E372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A373" s="1">
+        <v>45961</v>
+      </c>
+      <c r="E373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A374" s="1">
+        <v>45964</v>
+      </c>
+      <c r="E374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A375" s="1">
+        <v>45965</v>
+      </c>
+      <c r="E375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A376" s="1">
+        <v>45972</v>
+      </c>
+      <c r="E376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A377" s="1">
+        <v>45964</v>
+      </c>
+      <c r="E377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A378" s="1">
+        <v>45960</v>
+      </c>
+      <c r="E378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A379" s="1">
+        <v>45971</v>
+      </c>
+      <c r="E379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A380" s="1">
+        <v>45974</v>
+      </c>
+      <c r="E380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A381" s="1">
+        <v>45964</v>
+      </c>
+      <c r="E381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A382" s="1">
+        <v>45967</v>
+      </c>
+      <c r="E382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A383" s="1">
+        <v>45967</v>
+      </c>
+      <c r="E383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A384" s="1">
+        <v>45975</v>
+      </c>
+      <c r="E384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A385" s="1">
+        <v>45961</v>
+      </c>
+      <c r="E385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A386" s="1">
+        <v>45975</v>
+      </c>
+      <c r="E386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A387" s="1">
+        <v>45959</v>
+      </c>
+      <c r="E387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A388" s="1">
+        <v>45981</v>
+      </c>
+      <c r="E388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A389" s="1">
+        <v>45960</v>
+      </c>
+      <c r="E389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A390" s="1">
+        <v>45979</v>
+      </c>
+      <c r="E390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A391" s="1">
+        <v>45967</v>
+      </c>
+      <c r="E391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A392" s="1">
+        <v>45958</v>
+      </c>
+      <c r="E392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A393" s="1">
+        <v>45961</v>
+      </c>
+      <c r="E393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A394" s="1"/>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A395" s="1"/>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A396" s="1"/>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A397" s="1"/>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A398" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A209:A237">
@@ -4274,8 +4996,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="USB-Dokument" ma:contentTypeID="0x01010074254FFFFA788748BE9570FD90FA56DE00A6BA077A5C2D0748B0D413E1B37C0DF4" ma:contentTypeVersion="19" ma:contentTypeDescription="Ein neues USB-Dokument in der Bibliothek erstellen." ma:contentTypeScope="" ma:versionID="02b5e8e077bfe91883e6f5ecfc3b3af6">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee2de805-d424-449f-84ad-9da0e2dd7d39" xmlns:ns3="4c57b41f-cbf4-457f-bf80-bd53c8e26310" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="339fe5645888afd041a953f5a2ed2ded" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Confidentiality xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">Intern</Confidentiality>
+    <Patientdata xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">false</Patientdata>
+    <TaxCatchAll xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4c57b41f-cbf4-457f-bf80-bd53c8e26310">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="USB-Dokument" ma:contentTypeID="0x01010074254FFFFA788748BE9570FD90FA56DE00A6BA077A5C2D0748B0D413E1B37C0DF4" ma:contentTypeVersion="19" ma:contentTypeDescription="Ein neues USB-Dokument in der Bibliothek erstellen." ma:contentTypeScope="" ma:versionID="d59990fbfd519ac7209fb148145d468e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee2de805-d424-449f-84ad-9da0e2dd7d39" xmlns:ns3="4c57b41f-cbf4-457f-bf80-bd53c8e26310" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9590e4e8f2b27359d78ddca2ab94a63e" ns2:_="" ns3:_="">
     <xsd:import namespace="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
     <xsd:import namespace="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
     <xsd:element name="properties">
@@ -4490,19 +5225,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Confidentiality xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">Intern</Confidentiality>
-    <Patientdata xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39">false</Patientdata>
-    <TaxCatchAll xmlns="ee2de805-d424-449f-84ad-9da0e2dd7d39" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4c57b41f-cbf4-457f-bf80-bd53c8e26310">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4513,24 +5235,24 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{631E6FC6-77F7-401A-A740-4BF8554C52E8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF03F65C-5CED-4A89-8A63-D9B2AEB56D23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF03F65C-5CED-4A89-8A63-D9B2AEB56D23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="4c57b41f-cbf4-457f-bf80-bd53c8e26310"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="ee2de805-d424-449f-84ad-9da0e2dd7d39"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46834C1C-4F65-47EA-B4E5-1EFA1FE1385B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
